--- a/data/pca/factorExposure/factorExposure_2009-03-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-05.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01627407374350653</v>
+        <v>-0.01584439271133876</v>
       </c>
       <c r="C2">
-        <v>0.002029360265951198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001497982464233999</v>
+      </c>
+      <c r="D2">
+        <v>-0.008174476506910651</v>
+      </c>
+      <c r="E2">
+        <v>-0.02040300721811723</v>
+      </c>
+      <c r="F2">
+        <v>0.006397976272016515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +748,319 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08174752700032394</v>
+        <v>-0.08530383216673471</v>
       </c>
       <c r="C4">
-        <v>0.01966109228763662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.015794275684474</v>
+      </c>
+      <c r="D4">
+        <v>-0.08698305340587809</v>
+      </c>
+      <c r="E4">
+        <v>0.05202571978708691</v>
+      </c>
+      <c r="F4">
+        <v>-0.01580423503629026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.00155194732435388</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.0001160119806102408</v>
+      </c>
+      <c r="D5">
+        <v>-0.001277189009799525</v>
+      </c>
+      <c r="E5">
+        <v>0.00130777882310729</v>
+      </c>
+      <c r="F5">
+        <v>0.003349140785490284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.163688415117033</v>
+        <v>-0.1685086186119887</v>
       </c>
       <c r="C6">
-        <v>0.0402282447013898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.0374200621247625</v>
+      </c>
+      <c r="D6">
+        <v>0.008809538518949217</v>
+      </c>
+      <c r="E6">
+        <v>0.05963976540018939</v>
+      </c>
+      <c r="F6">
+        <v>-0.009163913762814566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05407434153254501</v>
+        <v>-0.05878870435725756</v>
       </c>
       <c r="C7">
-        <v>0.00148774108362932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.001227269326208203</v>
+      </c>
+      <c r="D7">
+        <v>-0.05499575064627213</v>
+      </c>
+      <c r="E7">
+        <v>0.03288307033163333</v>
+      </c>
+      <c r="F7">
+        <v>-0.05671933726536153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05792805974493451</v>
+        <v>-0.05409792775763541</v>
       </c>
       <c r="C8">
-        <v>-0.009199226229240676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.010975917188603</v>
+      </c>
+      <c r="D8">
+        <v>-0.03594422456213724</v>
+      </c>
+      <c r="E8">
+        <v>-0.02367274829033687</v>
+      </c>
+      <c r="F8">
+        <v>0.02050275764553456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06260085174669339</v>
+        <v>-0.06640328650574485</v>
       </c>
       <c r="C9">
-        <v>0.01494646196536798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01107631855506675</v>
+      </c>
+      <c r="D9">
+        <v>-0.09253309842498075</v>
+      </c>
+      <c r="E9">
+        <v>0.07026046826535721</v>
+      </c>
+      <c r="F9">
+        <v>-0.02221537946287838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09939299496924016</v>
+        <v>-0.09475027292890276</v>
       </c>
       <c r="C10">
-        <v>0.02675329627751643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.02712935974141096</v>
+      </c>
+      <c r="D10">
+        <v>0.1500405240216157</v>
+      </c>
+      <c r="E10">
+        <v>-0.09243650963728356</v>
+      </c>
+      <c r="F10">
+        <v>0.005895863609086575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08257501842537347</v>
+        <v>-0.08061816947849128</v>
       </c>
       <c r="C11">
-        <v>0.01659008799048198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01190812204634119</v>
+      </c>
+      <c r="D11">
+        <v>-0.1324932564669693</v>
+      </c>
+      <c r="E11">
+        <v>0.03559005332940113</v>
+      </c>
+      <c r="F11">
+        <v>0.005840282157585102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08762556078003647</v>
+        <v>-0.08321843516762172</v>
       </c>
       <c r="C12">
-        <v>0.01444678367394823</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.009141033652431945</v>
+      </c>
+      <c r="D12">
+        <v>-0.1506285032855328</v>
+      </c>
+      <c r="E12">
+        <v>0.03723624954326834</v>
+      </c>
+      <c r="F12">
+        <v>-0.007596196998134361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04213817550934011</v>
+        <v>-0.04220581322977769</v>
       </c>
       <c r="C13">
-        <v>0.007680141614232695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.003706189092585379</v>
+      </c>
+      <c r="D13">
+        <v>-0.0637473246093319</v>
+      </c>
+      <c r="E13">
+        <v>0.008167183098831866</v>
+      </c>
+      <c r="F13">
+        <v>-0.01833385405865364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.0202539603410117</v>
+        <v>-0.02278617962555203</v>
       </c>
       <c r="C14">
-        <v>0.01516430459397532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01401724619943593</v>
+      </c>
+      <c r="D14">
+        <v>-0.04403907944437017</v>
+      </c>
+      <c r="E14">
+        <v>0.03124703667747727</v>
+      </c>
+      <c r="F14">
+        <v>-0.0006045121701280846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03013573362996785</v>
+        <v>-0.032429240811017</v>
       </c>
       <c r="C15">
-        <v>0.007732557143466426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.006257617667956464</v>
+      </c>
+      <c r="D15">
+        <v>-0.05283548978074085</v>
+      </c>
+      <c r="E15">
+        <v>0.02604202382907501</v>
+      </c>
+      <c r="F15">
+        <v>-0.01531651573315695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06342570955504279</v>
+        <v>-0.06337552489199463</v>
       </c>
       <c r="C16">
-        <v>0.00501592323592767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.0004749094797770945</v>
+      </c>
+      <c r="D16">
+        <v>-0.142857017204821</v>
+      </c>
+      <c r="E16">
+        <v>0.04744537087933297</v>
+      </c>
+      <c r="F16">
+        <v>0.01252003131907673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.00349100692244968</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.001344833875241744</v>
+      </c>
+      <c r="D17">
+        <v>-0.003129483043865387</v>
+      </c>
+      <c r="E17">
+        <v>-0.0008231070155642334</v>
+      </c>
+      <c r="F17">
+        <v>0.007754368293088818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.03311959799305879</v>
+        <v>-0.04809550197000641</v>
       </c>
       <c r="C18">
-        <v>0.0004343596428125473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.0009232811449960756</v>
+      </c>
+      <c r="D18">
+        <v>-0.03245371090452497</v>
+      </c>
+      <c r="E18">
+        <v>-0.0160584834222076</v>
+      </c>
+      <c r="F18">
+        <v>0.0008714971710617761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06106820087732777</v>
+        <v>-0.0601939810440963</v>
       </c>
       <c r="C20">
-        <v>0.005072627508329861</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.002251482655088447</v>
+      </c>
+      <c r="D20">
+        <v>-0.09581298801805048</v>
+      </c>
+      <c r="E20">
+        <v>0.06520417669373102</v>
+      </c>
+      <c r="F20">
+        <v>0.00711859911206727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04206314822407427</v>
+        <v>-0.0440026943722204</v>
       </c>
       <c r="C21">
-        <v>0.01107449320146331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.008451698780188057</v>
+      </c>
+      <c r="D21">
+        <v>-0.05361517111151064</v>
+      </c>
+      <c r="E21">
+        <v>-0.01262861443349015</v>
+      </c>
+      <c r="F21">
+        <v>-0.006355791198696912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04667728702048603</v>
+        <v>-0.04510183217027044</v>
       </c>
       <c r="C22">
-        <v>0.005480843326237559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.002951837033706071</v>
+      </c>
+      <c r="D22">
+        <v>-0.01963169265669656</v>
+      </c>
+      <c r="E22">
+        <v>-0.03948599204004227</v>
+      </c>
+      <c r="F22">
+        <v>0.1305833861833788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04668636373701577</v>
+        <v>-0.04510957780032744</v>
       </c>
       <c r="C23">
-        <v>0.005483514943114571</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.002954241861072362</v>
+      </c>
+      <c r="D23">
+        <v>-0.01962583082132252</v>
+      </c>
+      <c r="E23">
+        <v>-0.03950944539065931</v>
+      </c>
+      <c r="F23">
+        <v>0.1306231603936982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07023740029266271</v>
+        <v>-0.06958123128292101</v>
       </c>
       <c r="C24">
-        <v>0.005761405517607431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.001596304070292317</v>
+      </c>
+      <c r="D24">
+        <v>-0.1332692777500173</v>
+      </c>
+      <c r="E24">
+        <v>0.04086591529623689</v>
+      </c>
+      <c r="F24">
+        <v>-0.005195787291795524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07693792331891998</v>
+        <v>-0.07493975236581228</v>
       </c>
       <c r="C25">
-        <v>0.008883808047696697</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.004736869537775371</v>
+      </c>
+      <c r="D25">
+        <v>-0.1229414781430429</v>
+      </c>
+      <c r="E25">
+        <v>0.02516462622413289</v>
+      </c>
+      <c r="F25">
+        <v>-0.0229691145236596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05690811305824046</v>
+        <v>-0.06104572420050303</v>
       </c>
       <c r="C26">
-        <v>0.018794767524226</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01617499214310751</v>
+      </c>
+      <c r="D26">
+        <v>-0.06618112977511531</v>
+      </c>
+      <c r="E26">
+        <v>0.004534430144413908</v>
+      </c>
+      <c r="F26">
+        <v>0.006204262956873781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1228,219 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1594660106857888</v>
+        <v>-0.1634912488418424</v>
       </c>
       <c r="C28">
-        <v>0.03343226573817192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.0351311949120457</v>
+      </c>
+      <c r="D28">
+        <v>0.2424762518397223</v>
+      </c>
+      <c r="E28">
+        <v>-0.02851818375539856</v>
+      </c>
+      <c r="F28">
+        <v>-0.05180260182049561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02535493664089293</v>
+        <v>-0.02767204978837971</v>
       </c>
       <c r="C29">
-        <v>0.009974389685358208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.009402551745728708</v>
+      </c>
+      <c r="D29">
+        <v>-0.04140601820301763</v>
+      </c>
+      <c r="E29">
+        <v>-0.004579645213534779</v>
+      </c>
+      <c r="F29">
+        <v>0.0210105524985023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04465575970493556</v>
+        <v>-0.045648226457521</v>
       </c>
       <c r="C30">
-        <v>0.004555132202969033</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.001345142971189967</v>
+      </c>
+      <c r="D30">
+        <v>-0.08629079350636805</v>
+      </c>
+      <c r="E30">
+        <v>0.09308965859954853</v>
+      </c>
+      <c r="F30">
+        <v>-0.07452205717892779</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05252900274536597</v>
+        <v>-0.05234229128482808</v>
       </c>
       <c r="C31">
-        <v>0.01998261527828236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01759371229218486</v>
+      </c>
+      <c r="D31">
+        <v>-0.0377049916805102</v>
+      </c>
+      <c r="E31">
+        <v>0.01174611891341534</v>
+      </c>
+      <c r="F31">
+        <v>0.03215839378798944</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04397364369505656</v>
+        <v>-0.04897498177848778</v>
       </c>
       <c r="C32">
-        <v>0.001420142046061247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001232652454936299</v>
+      </c>
+      <c r="D32">
+        <v>-0.03964927523816103</v>
+      </c>
+      <c r="E32">
+        <v>0.01468838079336215</v>
+      </c>
+      <c r="F32">
+        <v>0.01993713017453947</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08155119721747486</v>
+        <v>-0.08454474584661328</v>
       </c>
       <c r="C33">
-        <v>0.01316956856853081</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008184544051575638</v>
+      </c>
+      <c r="D33">
+        <v>-0.1172093222881698</v>
+      </c>
+      <c r="E33">
+        <v>0.04972990994309152</v>
+      </c>
+      <c r="F33">
+        <v>0.008659798681663111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.05891775112670112</v>
+        <v>-0.05915917860057859</v>
       </c>
       <c r="C34">
-        <v>0.01407930590519503</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.009633352688149095</v>
+      </c>
+      <c r="D34">
+        <v>-0.1237871560994342</v>
+      </c>
+      <c r="E34">
+        <v>0.04302201337394115</v>
+      </c>
+      <c r="F34">
+        <v>-0.0279269552286321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02712598958200337</v>
+        <v>-0.0281706332686236</v>
       </c>
       <c r="C35">
-        <v>0.005366640832148066</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.004515671596773655</v>
+      </c>
+      <c r="D35">
+        <v>-0.01686974770431299</v>
+      </c>
+      <c r="E35">
+        <v>0.01121097750913779</v>
+      </c>
+      <c r="F35">
+        <v>0.01813077304263896</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.0240865143370862</v>
+        <v>-0.02814768423356834</v>
       </c>
       <c r="C36">
-        <v>0.009022562448671551</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007938746347852696</v>
+      </c>
+      <c r="D36">
+        <v>-0.0501038366419518</v>
+      </c>
+      <c r="E36">
+        <v>0.0399823238977736</v>
+      </c>
+      <c r="F36">
+        <v>0.01108773563351509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.003512784608202214</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.0007937760020965571</v>
+      </c>
+      <c r="D37">
+        <v>-0.004179655021449775</v>
+      </c>
+      <c r="E37">
+        <v>-0.001369150583923562</v>
+      </c>
+      <c r="F37">
+        <v>0.0001378232503863166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1448,79 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.08901671001823733</v>
+        <v>-0.08309844762718707</v>
       </c>
       <c r="C39">
-        <v>0.01899751200449893</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01382618831831996</v>
+      </c>
+      <c r="D39">
+        <v>-0.1556201863880834</v>
+      </c>
+      <c r="E39">
+        <v>0.02771684195935242</v>
+      </c>
+      <c r="F39">
+        <v>0.004324922731632446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04385047180603591</v>
+        <v>-0.04939625768533079</v>
       </c>
       <c r="C40">
-        <v>0.0126768268547477</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01072652783997505</v>
+      </c>
+      <c r="D40">
+        <v>-0.05478510833522735</v>
+      </c>
+      <c r="E40">
+        <v>-0.01465182818803197</v>
+      </c>
+      <c r="F40">
+        <v>-0.004833684159750837</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02779387069972648</v>
+        <v>-0.02955121800073434</v>
       </c>
       <c r="C41">
-        <v>0.008901038072493336</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.008139443626232432</v>
+      </c>
+      <c r="D41">
+        <v>-0.0248685457076485</v>
+      </c>
+      <c r="E41">
+        <v>-0.005363104727236716</v>
+      </c>
+      <c r="F41">
+        <v>0.005728091743648031</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1528,179 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04244067385919931</v>
+        <v>-0.04133837499563296</v>
       </c>
       <c r="C43">
-        <v>0.009991044022748094</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.00883258231715274</v>
+      </c>
+      <c r="D43">
+        <v>-0.03583552195471806</v>
+      </c>
+      <c r="E43">
+        <v>-0.003357521240555557</v>
+      </c>
+      <c r="F43">
+        <v>0.0243061398453564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.05418620862946234</v>
+        <v>-0.06311251418115804</v>
       </c>
       <c r="C44">
-        <v>0.02039594450371212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.01792440211590297</v>
+      </c>
+      <c r="D44">
+        <v>-0.0875586585392866</v>
+      </c>
+      <c r="E44">
+        <v>0.2280240995014531</v>
+      </c>
+      <c r="F44">
+        <v>-0.08213495747626577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0002058384038751713</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>5.297938657400163e-05</v>
+      </c>
+      <c r="D45">
+        <v>2.693706225994525e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0005310361753087261</v>
+      </c>
+      <c r="F45">
+        <v>-0.0002855514205182565</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02533135282738267</v>
+        <v>-0.02618336578939607</v>
       </c>
       <c r="C46">
-        <v>0.005469064378101188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.004417990638094496</v>
+      </c>
+      <c r="D46">
+        <v>-0.0276390237572719</v>
+      </c>
+      <c r="E46">
+        <v>-0.001777468032789065</v>
+      </c>
+      <c r="F46">
+        <v>0.03240916307903691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05357186417223107</v>
+        <v>-0.05257119765101434</v>
       </c>
       <c r="C47">
-        <v>0.007737968028158204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.005830719145219809</v>
+      </c>
+      <c r="D47">
+        <v>-0.02426313878392551</v>
+      </c>
+      <c r="E47">
+        <v>-0.009059751993471209</v>
+      </c>
+      <c r="F47">
+        <v>0.05400991850122941</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0486042892465046</v>
+        <v>-0.05203554357812436</v>
       </c>
       <c r="C48">
-        <v>0.006433185559215821</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.004012700813906494</v>
+      </c>
+      <c r="D48">
+        <v>-0.06471274692453093</v>
+      </c>
+      <c r="E48">
+        <v>0.008790607393373685</v>
+      </c>
+      <c r="F48">
+        <v>-0.02337025571207282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1940207598594992</v>
+        <v>-0.1969198269884868</v>
       </c>
       <c r="C49">
-        <v>0.03079348512857471</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02630123718306946</v>
+      </c>
+      <c r="D49">
+        <v>0.008735937119474015</v>
+      </c>
+      <c r="E49">
+        <v>0.04080119292963477</v>
+      </c>
+      <c r="F49">
+        <v>-0.03646345236251173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05001390812221541</v>
+        <v>-0.0523363952754648</v>
       </c>
       <c r="C50">
-        <v>0.01521204809557826</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01358088787485774</v>
+      </c>
+      <c r="D50">
+        <v>-0.03444153641445079</v>
+      </c>
+      <c r="E50">
+        <v>0.02234228550909047</v>
+      </c>
+      <c r="F50">
+        <v>0.01905277458011474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1708,119 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1467277193578988</v>
+        <v>-0.1405619948598933</v>
       </c>
       <c r="C52">
-        <v>0.02621808434962592</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.02216554648473904</v>
+      </c>
+      <c r="D52">
+        <v>-0.04477798199667313</v>
+      </c>
+      <c r="E52">
+        <v>0.05936266611666183</v>
+      </c>
+      <c r="F52">
+        <v>0.02265205546398424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1776072545860458</v>
+        <v>-0.1692865109511383</v>
       </c>
       <c r="C53">
-        <v>0.03203733800757588</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.02817183811960587</v>
+      </c>
+      <c r="D53">
+        <v>-0.01927316377580392</v>
+      </c>
+      <c r="E53">
+        <v>0.1168944151939455</v>
+      </c>
+      <c r="F53">
+        <v>0.01227940701992627</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01350981539755187</v>
+        <v>-0.01651495162823252</v>
       </c>
       <c r="C54">
-        <v>0.01162402802068456</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01085758160598791</v>
+      </c>
+      <c r="D54">
+        <v>-0.03459793117651238</v>
+      </c>
+      <c r="E54">
+        <v>0.006717851751632378</v>
+      </c>
+      <c r="F54">
+        <v>0.01461122351807265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1206894666497472</v>
+        <v>-0.1177300025839956</v>
       </c>
       <c r="C55">
-        <v>0.02684293817562263</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.02383874022859212</v>
+      </c>
+      <c r="D55">
+        <v>-0.02193816107897841</v>
+      </c>
+      <c r="E55">
+        <v>0.07186815422953677</v>
+      </c>
+      <c r="F55">
+        <v>0.04559368197134272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1810293413835922</v>
+        <v>-0.1745608085674193</v>
       </c>
       <c r="C56">
-        <v>0.02936161059161222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.02603832433872386</v>
+      </c>
+      <c r="D56">
+        <v>-0.002526450369981922</v>
+      </c>
+      <c r="E56">
+        <v>0.07288570069249739</v>
+      </c>
+      <c r="F56">
+        <v>0.03827528499576721</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1828,379 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0451496031094805</v>
+        <v>-0.04484193414489726</v>
       </c>
       <c r="C58">
-        <v>0.004231003313692943</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.0001607690610001265</v>
+      </c>
+      <c r="D58">
+        <v>-0.09805634990256169</v>
+      </c>
+      <c r="E58">
+        <v>-0.01347728869508494</v>
+      </c>
+      <c r="F58">
+        <v>0.03824556638780893</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1774713306903822</v>
+        <v>-0.1816843568227689</v>
       </c>
       <c r="C59">
-        <v>0.03234923311677872</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.03365287526415974</v>
+      </c>
+      <c r="D59">
+        <v>0.2034741232298905</v>
+      </c>
+      <c r="E59">
+        <v>-0.0806340631466099</v>
+      </c>
+      <c r="F59">
+        <v>0.009215676580173488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2184099982059778</v>
+        <v>-0.2143650422332388</v>
       </c>
       <c r="C60">
-        <v>0.009628992427158478</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.005025621487469941</v>
+      </c>
+      <c r="D60">
+        <v>-0.02119550028332804</v>
+      </c>
+      <c r="E60">
+        <v>-0.01141800153527272</v>
+      </c>
+      <c r="F60">
+        <v>0.01115455556371476</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.06932807331447831</v>
+        <v>-0.06595288411623998</v>
       </c>
       <c r="C61">
-        <v>0.01499963022951555</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01028729390874948</v>
+      </c>
+      <c r="D61">
+        <v>-0.1230418658080265</v>
+      </c>
+      <c r="E61">
+        <v>0.0151854218701646</v>
+      </c>
+      <c r="F61">
+        <v>0.01358885452439933</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1701725863147353</v>
+        <v>-0.1662115933677717</v>
       </c>
       <c r="C62">
-        <v>0.03145471825030064</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.02788165707977172</v>
+      </c>
+      <c r="D62">
+        <v>-0.01303534808022211</v>
+      </c>
+      <c r="E62">
+        <v>0.06874303119557316</v>
+      </c>
+      <c r="F62">
+        <v>0.0462861941807625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04026771505148714</v>
+        <v>-0.04562734237208892</v>
       </c>
       <c r="C63">
-        <v>0.005319732208998114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.003184316518358832</v>
+      </c>
+      <c r="D63">
+        <v>-0.07291413511474837</v>
+      </c>
+      <c r="E63">
+        <v>0.01221384131480418</v>
+      </c>
+      <c r="F63">
+        <v>0.02126902226336197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1126546345677895</v>
+        <v>-0.1103928189687355</v>
       </c>
       <c r="C64">
-        <v>0.02052636881369002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01655828556920712</v>
+      </c>
+      <c r="D64">
+        <v>-0.05419588236865747</v>
+      </c>
+      <c r="E64">
+        <v>0.03081268728666554</v>
+      </c>
+      <c r="F64">
+        <v>0.003417153436908964</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1525591357367422</v>
+        <v>-0.1574193304071484</v>
       </c>
       <c r="C65">
-        <v>0.04599365794698413</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04378615192577046</v>
+      </c>
+      <c r="D65">
+        <v>0.03958957826625129</v>
+      </c>
+      <c r="E65">
+        <v>0.06339734100986508</v>
+      </c>
+      <c r="F65">
+        <v>0.001956262896717342</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1091702653058588</v>
+        <v>-0.1019164385398258</v>
       </c>
       <c r="C66">
-        <v>0.0177709191430682</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01192960697474454</v>
+      </c>
+      <c r="D66">
+        <v>-0.1422312504599278</v>
+      </c>
+      <c r="E66">
+        <v>0.02927314951388706</v>
+      </c>
+      <c r="F66">
+        <v>0.003272031034346004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05766706663425614</v>
+        <v>-0.04882544547798633</v>
       </c>
       <c r="C67">
-        <v>0.00589163546681703</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003532785495691759</v>
+      </c>
+      <c r="D67">
+        <v>-0.0576986809141903</v>
+      </c>
+      <c r="E67">
+        <v>-0.05462108345558514</v>
+      </c>
+      <c r="F67">
+        <v>0.07044967048045209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1283205973188631</v>
+        <v>-0.1334408444934606</v>
       </c>
       <c r="C68">
-        <v>0.04050168105534149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04374630005385473</v>
+      </c>
+      <c r="D68">
+        <v>0.2531156437300828</v>
+      </c>
+      <c r="E68">
+        <v>-0.03999576474214532</v>
+      </c>
+      <c r="F68">
+        <v>-0.08301354675452703</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03923040507461503</v>
+        <v>-0.03887806049886473</v>
       </c>
       <c r="C69">
-        <v>0.00372880920932552</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.002541501713877756</v>
+      </c>
+      <c r="D69">
+        <v>-0.01301582112245557</v>
+      </c>
+      <c r="E69">
+        <v>0.01685168605935615</v>
+      </c>
+      <c r="F69">
+        <v>0.05339262227575073</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.07173303047712117</v>
+        <v>-0.07261782715452612</v>
       </c>
       <c r="C70">
-        <v>-0.02144299469045757</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02326403611833726</v>
+      </c>
+      <c r="D70">
+        <v>-0.05159624034091998</v>
+      </c>
+      <c r="E70">
+        <v>-0.3398614150928295</v>
+      </c>
+      <c r="F70">
+        <v>0.1820582802513798</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1493791635219711</v>
+        <v>-0.1557432609206365</v>
       </c>
       <c r="C71">
-        <v>0.04707565494903745</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04978203986343551</v>
+      </c>
+      <c r="D71">
+        <v>0.2605359061186577</v>
+      </c>
+      <c r="E71">
+        <v>-0.04626613933328121</v>
+      </c>
+      <c r="F71">
+        <v>-0.09229215536334816</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1400104762031667</v>
+        <v>-0.1462658968303088</v>
       </c>
       <c r="C72">
-        <v>0.03557670673920245</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.0336877520337181</v>
+      </c>
+      <c r="D72">
+        <v>-0.01305845564980796</v>
+      </c>
+      <c r="E72">
+        <v>0.06432817377734386</v>
+      </c>
+      <c r="F72">
+        <v>0.03497296375861747</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1934285351558323</v>
+        <v>-0.2000101255673307</v>
       </c>
       <c r="C73">
-        <v>0.02403284710758338</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.0181270886759957</v>
+      </c>
+      <c r="D73">
+        <v>-0.03139965239884124</v>
+      </c>
+      <c r="E73">
+        <v>0.06964600916491447</v>
+      </c>
+      <c r="F73">
+        <v>0.06173275318485055</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08925194179753887</v>
+        <v>-0.08888503640774918</v>
       </c>
       <c r="C74">
-        <v>0.0179004397393589</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01559386399414416</v>
+      </c>
+      <c r="D74">
+        <v>-0.02577254679995895</v>
+      </c>
+      <c r="E74">
+        <v>0.08206348391539063</v>
+      </c>
+      <c r="F74">
+        <v>0.01986121598045553</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1264793069006513</v>
+        <v>-0.1193597838328859</v>
       </c>
       <c r="C75">
-        <v>0.03594165376505491</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03215689362519662</v>
+      </c>
+      <c r="D75">
+        <v>-0.03649607420844166</v>
+      </c>
+      <c r="E75">
+        <v>0.06647981324208478</v>
+      </c>
+      <c r="F75">
+        <v>0.06286053077941346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2208,519 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07492793856580472</v>
+        <v>-0.0888971868135349</v>
       </c>
       <c r="C77">
-        <v>0.01439274944801266</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.01144265238442731</v>
+      </c>
+      <c r="D77">
+        <v>-0.1225195744267792</v>
+      </c>
+      <c r="E77">
+        <v>0.05339624689593708</v>
+      </c>
+      <c r="F77">
+        <v>-0.02088982437527181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09607508828889078</v>
+        <v>-0.09838119750545224</v>
       </c>
       <c r="C78">
-        <v>0.04410683184320081</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.04102491518819131</v>
+      </c>
+      <c r="D78">
+        <v>-0.1459854428525892</v>
+      </c>
+      <c r="E78">
+        <v>0.0561900990267398</v>
+      </c>
+      <c r="F78">
+        <v>-0.02284583478229056</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.168885667801485</v>
+        <v>-0.1639957748120144</v>
       </c>
       <c r="C79">
-        <v>0.03482474932005951</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.03064758011076842</v>
+      </c>
+      <c r="D79">
+        <v>-0.02780249661680333</v>
+      </c>
+      <c r="E79">
+        <v>0.04117192203382411</v>
+      </c>
+      <c r="F79">
+        <v>0.04164170041578895</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07877169063472922</v>
+        <v>-0.07567611554971908</v>
       </c>
       <c r="C80">
-        <v>0.004773251518669959</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.002063255955785943</v>
+      </c>
+      <c r="D80">
+        <v>-0.05289622359031759</v>
+      </c>
+      <c r="E80">
+        <v>-0.02018850779664932</v>
+      </c>
+      <c r="F80">
+        <v>0.04668020911712019</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1149235827690983</v>
+        <v>-0.1085941952288461</v>
       </c>
       <c r="C81">
-        <v>0.03736710609708318</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03519350231061177</v>
+      </c>
+      <c r="D81">
+        <v>-0.00895179537273732</v>
+      </c>
+      <c r="E81">
+        <v>0.05084202208647996</v>
+      </c>
+      <c r="F81">
+        <v>0.06809136177835082</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1606370282221502</v>
+        <v>-0.1591364750273902</v>
       </c>
       <c r="C82">
-        <v>0.03451152918950584</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.0309443837662701</v>
+      </c>
+      <c r="D82">
+        <v>-0.0001236109669405673</v>
+      </c>
+      <c r="E82">
+        <v>0.10240401134189</v>
+      </c>
+      <c r="F82">
+        <v>0.008173860024757174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05658657693876738</v>
+        <v>-0.05201968160540226</v>
       </c>
       <c r="C83">
-        <v>0.00700560223288213</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.004604146377964299</v>
+      </c>
+      <c r="D83">
+        <v>-0.05544915587228101</v>
+      </c>
+      <c r="E83">
+        <v>-0.01544957062030248</v>
+      </c>
+      <c r="F83">
+        <v>0.004338737786618902</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05168997497277409</v>
+        <v>-0.04899166534111477</v>
       </c>
       <c r="C84">
-        <v>0.01335622511924291</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01083161731515681</v>
+      </c>
+      <c r="D84">
+        <v>-0.07343999299247647</v>
+      </c>
+      <c r="E84">
+        <v>0.008617843307739634</v>
+      </c>
+      <c r="F84">
+        <v>0.002826008390173904</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1402390723588129</v>
+        <v>-0.134712513912802</v>
       </c>
       <c r="C85">
-        <v>0.03803871385024586</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03453241523141563</v>
+      </c>
+      <c r="D85">
+        <v>-0.02239905217351166</v>
+      </c>
+      <c r="E85">
+        <v>0.08764300056021362</v>
+      </c>
+      <c r="F85">
+        <v>0.02264980786823075</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08496628212515571</v>
+        <v>-0.08173094258095344</v>
       </c>
       <c r="C86">
-        <v>-0.001940278884401419</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006491788050851767</v>
+      </c>
+      <c r="D86">
+        <v>-0.09098061501922791</v>
+      </c>
+      <c r="E86">
+        <v>-0.5571334687086544</v>
+      </c>
+      <c r="F86">
+        <v>0.5699932544023912</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08624486089397265</v>
+        <v>-0.08741562628464926</v>
       </c>
       <c r="C87">
-        <v>0.02834021721472398</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02386824298604158</v>
+      </c>
+      <c r="D87">
+        <v>-0.08549362955799893</v>
+      </c>
+      <c r="E87">
+        <v>0.008940419326703039</v>
+      </c>
+      <c r="F87">
+        <v>-0.1173868615682403</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06295406243080751</v>
+        <v>-0.06164209918116292</v>
       </c>
       <c r="C88">
-        <v>0.00758998940333072</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.005016709498694514</v>
+      </c>
+      <c r="D88">
+        <v>-0.06664208051341164</v>
+      </c>
+      <c r="E88">
+        <v>0.018267106906818</v>
+      </c>
+      <c r="F88">
+        <v>0.0151960171521264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1359062431726301</v>
+        <v>-0.1400980880439349</v>
       </c>
       <c r="C89">
-        <v>0.02025851834018663</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.02357721949067825</v>
+      </c>
+      <c r="D89">
+        <v>0.2277415215090235</v>
+      </c>
+      <c r="E89">
+        <v>-0.0415931421949244</v>
+      </c>
+      <c r="F89">
+        <v>-0.08923365094344249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1614225805800522</v>
+        <v>-0.1708566240028229</v>
       </c>
       <c r="C90">
-        <v>0.04359412959018349</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.04701764078703409</v>
+      </c>
+      <c r="D90">
+        <v>0.2532480866392025</v>
+      </c>
+      <c r="E90">
+        <v>-0.07111509335480694</v>
+      </c>
+      <c r="F90">
+        <v>-0.1219402848933927</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1266197984098569</v>
+        <v>-0.1207883120741531</v>
       </c>
       <c r="C91">
-        <v>0.0286782876541377</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02640196445304841</v>
+      </c>
+      <c r="D91">
+        <v>0.00871276675161258</v>
+      </c>
+      <c r="E91">
+        <v>0.03679754678035135</v>
+      </c>
+      <c r="F91">
+        <v>0.09900382755641587</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1601263407325398</v>
+        <v>-0.1625763348603426</v>
       </c>
       <c r="C92">
-        <v>0.03426251565455037</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.03732555218683214</v>
+      </c>
+      <c r="D92">
+        <v>0.2856132551280461</v>
+      </c>
+      <c r="E92">
+        <v>-0.05380712451094059</v>
+      </c>
+      <c r="F92">
+        <v>-0.08146409717695929</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.164963321468727</v>
+        <v>-0.1738131106275512</v>
       </c>
       <c r="C93">
-        <v>0.03976592190724101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.04200781113058764</v>
+      </c>
+      <c r="D93">
+        <v>0.2438705324879505</v>
+      </c>
+      <c r="E93">
+        <v>-0.0306668590480392</v>
+      </c>
+      <c r="F93">
+        <v>-0.06005320743233057</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1231786439267692</v>
+        <v>-0.117087333317708</v>
       </c>
       <c r="C94">
-        <v>0.03093858598380589</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.026989418416739</v>
+      </c>
+      <c r="D94">
+        <v>-0.04805598482388618</v>
+      </c>
+      <c r="E94">
+        <v>0.06315569365495637</v>
+      </c>
+      <c r="F94">
+        <v>0.06215630688894528</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1243725446377922</v>
+        <v>-0.1270654303912717</v>
       </c>
       <c r="C95">
-        <v>0.01361884624638392</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.008094382192938914</v>
+      </c>
+      <c r="D95">
+        <v>-0.1187472031650148</v>
+      </c>
+      <c r="E95">
+        <v>0.01611873077307418</v>
+      </c>
+      <c r="F95">
+        <v>0.03792163233369829</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1771771321262767</v>
+        <v>-0.1575425314121873</v>
       </c>
       <c r="C96">
-        <v>-0.9783603759335185</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9807653387592017</v>
+      </c>
+      <c r="D96">
+        <v>0.05602050385455787</v>
+      </c>
+      <c r="E96">
+        <v>0.06335537696737341</v>
+      </c>
+      <c r="F96">
+        <v>0.01049128619402378</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1911346185203777</v>
+        <v>-0.194447718472666</v>
       </c>
       <c r="C97">
-        <v>0.007199591590652678</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.002286845810065836</v>
+      </c>
+      <c r="D97">
+        <v>0.01636650629113</v>
+      </c>
+      <c r="E97">
+        <v>-0.148869150370282</v>
+      </c>
+      <c r="F97">
+        <v>0.08920921473828269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1905025927522073</v>
+        <v>-0.1977099513518097</v>
       </c>
       <c r="C98">
-        <v>0.01915453894647136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.01371314078185256</v>
+      </c>
+      <c r="D98">
+        <v>-0.006048931607794039</v>
+      </c>
+      <c r="E98">
+        <v>-0.1360882133954462</v>
+      </c>
+      <c r="F98">
+        <v>-0.04415857363136497</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.0561477603420816</v>
+        <v>-0.05570663733037868</v>
       </c>
       <c r="C99">
-        <v>-0.0006115389598242703</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.002845390518819299</v>
+      </c>
+      <c r="D99">
+        <v>-0.05913120009422354</v>
+      </c>
+      <c r="E99">
+        <v>0.009350954253399098</v>
+      </c>
+      <c r="F99">
+        <v>0.003676820595218404</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1194520434419809</v>
+        <v>-0.1116206894625816</v>
       </c>
       <c r="C100">
-        <v>-0.03356511389559508</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.04070659874252953</v>
+      </c>
+      <c r="D100">
+        <v>-0.3108383656661323</v>
+      </c>
+      <c r="E100">
+        <v>-0.5486816548409329</v>
+      </c>
+      <c r="F100">
+        <v>-0.6725772249242672</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02529171022842288</v>
+        <v>-0.02761568434485844</v>
       </c>
       <c r="C101">
-        <v>0.009993735927987578</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.009450770931904615</v>
+      </c>
+      <c r="D101">
+        <v>-0.04098911701932222</v>
+      </c>
+      <c r="E101">
+        <v>-0.006916677681121887</v>
+      </c>
+      <c r="F101">
+        <v>0.0223591755603645</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
